--- a/assets/format/template_export_inventory.xlsx
+++ b/assets/format/template_export_inventory.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\inetpub\wwwroot\sgss-web\assets\format\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F87D8B70-7716-4259-99C2-8822D860756B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AFE6E38D-5698-4EB4-B6FB-A14D881E819D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="25440" windowHeight="15270" xr2:uid="{2F15F523-A8F8-4B01-A65B-6B4F5ED804C2}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{2F15F523-A8F8-4B01-A65B-6B4F5ED804C2}"/>
   </bookViews>
   <sheets>
     <sheet name="Report" sheetId="4" r:id="rId1"/>
@@ -113,19 +113,22 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -441,24 +444,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{27511735-2F2E-47DE-8B0E-C89554306A27}">
-  <dimension ref="A1:AH50"/>
+  <dimension ref="A1:AH1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F28" sqref="F28"/>
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="2" width="19.42578125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="17.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="21.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="19.28515625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="17.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="6" width="13.5546875" style="4" customWidth="1"/>
+    <col min="7" max="8" width="13.5546875" style="5" customWidth="1"/>
+    <col min="9" max="34" width="13.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:34" s="4" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:34" s="2" customFormat="1" ht="31.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -483,424 +482,32 @@
       <c r="H1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="I1" s="3"/>
-      <c r="J1" s="3"/>
-      <c r="K1" s="3"/>
-      <c r="L1" s="3"/>
-      <c r="M1" s="3"/>
-      <c r="N1" s="3"/>
-      <c r="O1" s="3"/>
-      <c r="P1" s="3"/>
-      <c r="Q1" s="3"/>
-      <c r="R1" s="3"/>
-      <c r="S1" s="3"/>
-      <c r="T1" s="3"/>
-      <c r="U1" s="3"/>
-      <c r="V1" s="3"/>
-      <c r="W1" s="3"/>
-      <c r="X1" s="3"/>
-      <c r="Y1" s="3"/>
-      <c r="Z1" s="3"/>
-      <c r="AA1" s="3"/>
-      <c r="AB1" s="3"/>
-      <c r="AC1" s="3"/>
-      <c r="AD1" s="3"/>
-      <c r="AE1" s="3"/>
-      <c r="AF1" s="3"/>
-      <c r="AG1" s="3"/>
-      <c r="AH1" s="3"/>
-    </row>
-    <row r="2" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A2" s="2"/>
-      <c r="B2" s="2"/>
-      <c r="C2" s="2"/>
-      <c r="D2" s="2"/>
-      <c r="E2" s="2"/>
-      <c r="F2" s="2"/>
-    </row>
-    <row r="3" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A3" s="2"/>
-      <c r="B3" s="2"/>
-      <c r="C3" s="2"/>
-      <c r="D3" s="2"/>
-      <c r="E3" s="2"/>
-      <c r="F3" s="2"/>
-    </row>
-    <row r="4" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A4" s="2"/>
-      <c r="B4" s="2"/>
-      <c r="C4" s="2"/>
-      <c r="D4" s="2"/>
-      <c r="E4" s="2"/>
-      <c r="F4" s="2"/>
-    </row>
-    <row r="5" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A5" s="2"/>
-      <c r="B5" s="2"/>
-      <c r="C5" s="2"/>
-      <c r="D5" s="2"/>
-      <c r="E5" s="2"/>
-      <c r="F5" s="2"/>
-    </row>
-    <row r="6" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A6" s="2"/>
-      <c r="B6" s="2"/>
-      <c r="C6" s="2"/>
-      <c r="D6" s="2"/>
-      <c r="E6" s="2"/>
-      <c r="F6" s="2"/>
-    </row>
-    <row r="7" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A7" s="2"/>
-      <c r="B7" s="2"/>
-      <c r="C7" s="2"/>
-      <c r="D7" s="2"/>
-      <c r="E7" s="2"/>
-      <c r="F7" s="2"/>
-    </row>
-    <row r="8" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A8" s="2"/>
-      <c r="B8" s="2"/>
-      <c r="C8" s="2"/>
-      <c r="D8" s="2"/>
-      <c r="E8" s="2"/>
-      <c r="F8" s="2"/>
-    </row>
-    <row r="9" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A9" s="2"/>
-      <c r="B9" s="2"/>
-      <c r="C9" s="2"/>
-      <c r="D9" s="2"/>
-      <c r="E9" s="2"/>
-      <c r="F9" s="2"/>
-    </row>
-    <row r="10" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A10" s="2"/>
-      <c r="B10" s="2"/>
-      <c r="C10" s="2"/>
-      <c r="D10" s="2"/>
-      <c r="E10" s="2"/>
-      <c r="F10" s="2"/>
-    </row>
-    <row r="11" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A11" s="2"/>
-      <c r="B11" s="2"/>
-      <c r="C11" s="2"/>
-      <c r="D11" s="2"/>
-      <c r="E11" s="2"/>
-      <c r="F11" s="2"/>
-    </row>
-    <row r="12" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A12" s="2"/>
-      <c r="B12" s="2"/>
-      <c r="C12" s="2"/>
-      <c r="D12" s="2"/>
-      <c r="E12" s="2"/>
-      <c r="F12" s="2"/>
-    </row>
-    <row r="13" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A13" s="2"/>
-      <c r="B13" s="2"/>
-      <c r="C13" s="2"/>
-      <c r="D13" s="2"/>
-      <c r="E13" s="2"/>
-      <c r="F13" s="2"/>
-    </row>
-    <row r="14" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A14" s="2"/>
-      <c r="B14" s="2"/>
-      <c r="C14" s="2"/>
-      <c r="D14" s="2"/>
-      <c r="E14" s="2"/>
-      <c r="F14" s="2"/>
-    </row>
-    <row r="15" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A15" s="2"/>
-      <c r="B15" s="2"/>
-      <c r="C15" s="2"/>
-      <c r="D15" s="2"/>
-      <c r="E15" s="2"/>
-      <c r="F15" s="2"/>
-    </row>
-    <row r="16" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A16" s="2"/>
-      <c r="B16" s="2"/>
-      <c r="C16" s="2"/>
-      <c r="D16" s="2"/>
-      <c r="E16" s="2"/>
-      <c r="F16" s="2"/>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A17" s="2"/>
-      <c r="B17" s="2"/>
-      <c r="C17" s="2"/>
-      <c r="D17" s="2"/>
-      <c r="E17" s="2"/>
-      <c r="F17" s="2"/>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A18" s="2"/>
-      <c r="B18" s="2"/>
-      <c r="C18" s="2"/>
-      <c r="D18" s="2"/>
-      <c r="E18" s="2"/>
-      <c r="F18" s="2"/>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A19" s="2"/>
-      <c r="B19" s="2"/>
-      <c r="C19" s="2"/>
-      <c r="D19" s="2"/>
-      <c r="E19" s="2"/>
-      <c r="F19" s="2"/>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A20" s="2"/>
-      <c r="B20" s="2"/>
-      <c r="C20" s="2"/>
-      <c r="D20" s="2"/>
-      <c r="E20" s="2"/>
-      <c r="F20" s="2"/>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A21" s="2"/>
-      <c r="B21" s="2"/>
-      <c r="C21" s="2"/>
-      <c r="D21" s="2"/>
-      <c r="E21" s="2"/>
-      <c r="F21" s="2"/>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A22" s="2"/>
-      <c r="B22" s="2"/>
-      <c r="C22" s="2"/>
-      <c r="D22" s="2"/>
-      <c r="E22" s="2"/>
-      <c r="F22" s="2"/>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A23" s="2"/>
-      <c r="B23" s="2"/>
-      <c r="C23" s="2"/>
-      <c r="D23" s="2"/>
-      <c r="E23" s="2"/>
-      <c r="F23" s="2"/>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A24" s="2"/>
-      <c r="B24" s="2"/>
-      <c r="C24" s="2"/>
-      <c r="D24" s="2"/>
-      <c r="E24" s="2"/>
-      <c r="F24" s="2"/>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A25" s="2"/>
-      <c r="B25" s="2"/>
-      <c r="C25" s="2"/>
-      <c r="D25" s="2"/>
-      <c r="E25" s="2"/>
-      <c r="F25" s="2"/>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A26" s="2"/>
-      <c r="B26" s="2"/>
-      <c r="C26" s="2"/>
-      <c r="D26" s="2"/>
-      <c r="E26" s="2"/>
-      <c r="F26" s="2"/>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A27" s="2"/>
-      <c r="B27" s="2"/>
-      <c r="C27" s="2"/>
-      <c r="D27" s="2"/>
-      <c r="E27" s="2"/>
-      <c r="F27" s="2"/>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A28" s="2"/>
-      <c r="B28" s="2"/>
-      <c r="C28" s="2"/>
-      <c r="D28" s="2"/>
-      <c r="E28" s="2"/>
-      <c r="F28" s="2"/>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A29" s="2"/>
-      <c r="B29" s="2"/>
-      <c r="C29" s="2"/>
-      <c r="D29" s="2"/>
-      <c r="E29" s="2"/>
-      <c r="F29" s="2"/>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A30" s="2"/>
-      <c r="B30" s="2"/>
-      <c r="C30" s="2"/>
-      <c r="D30" s="2"/>
-      <c r="E30" s="2"/>
-      <c r="F30" s="2"/>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A31" s="2"/>
-      <c r="B31" s="2"/>
-      <c r="C31" s="2"/>
-      <c r="D31" s="2"/>
-      <c r="E31" s="2"/>
-      <c r="F31" s="2"/>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A32" s="2"/>
-      <c r="B32" s="2"/>
-      <c r="C32" s="2"/>
-      <c r="D32" s="2"/>
-      <c r="E32" s="2"/>
-      <c r="F32" s="2"/>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A33" s="2"/>
-      <c r="B33" s="2"/>
-      <c r="C33" s="2"/>
-      <c r="D33" s="2"/>
-      <c r="E33" s="2"/>
-      <c r="F33" s="2"/>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A34" s="2"/>
-      <c r="B34" s="2"/>
-      <c r="C34" s="2"/>
-      <c r="D34" s="2"/>
-      <c r="E34" s="2"/>
-      <c r="F34" s="2"/>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A35" s="2"/>
-      <c r="B35" s="2"/>
-      <c r="C35" s="2"/>
-      <c r="D35" s="2"/>
-      <c r="E35" s="2"/>
-      <c r="F35" s="2"/>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A36" s="2"/>
-      <c r="B36" s="2"/>
-      <c r="C36" s="2"/>
-      <c r="D36" s="2"/>
-      <c r="E36" s="2"/>
-      <c r="F36" s="2"/>
-    </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A37" s="2"/>
-      <c r="B37" s="2"/>
-      <c r="C37" s="2"/>
-      <c r="D37" s="2"/>
-      <c r="E37" s="2"/>
-      <c r="F37" s="2"/>
-    </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A38" s="2"/>
-      <c r="B38" s="2"/>
-      <c r="C38" s="2"/>
-      <c r="D38" s="2"/>
-      <c r="E38" s="2"/>
-      <c r="F38" s="2"/>
-    </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A39" s="2"/>
-      <c r="B39" s="2"/>
-      <c r="C39" s="2"/>
-      <c r="D39" s="2"/>
-      <c r="E39" s="2"/>
-      <c r="F39" s="2"/>
-    </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A40" s="2"/>
-      <c r="B40" s="2"/>
-      <c r="C40" s="2"/>
-      <c r="D40" s="2"/>
-      <c r="E40" s="2"/>
-      <c r="F40" s="2"/>
-    </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A41" s="2"/>
-      <c r="B41" s="2"/>
-      <c r="C41" s="2"/>
-      <c r="D41" s="2"/>
-      <c r="E41" s="2"/>
-      <c r="F41" s="2"/>
-    </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A42" s="2"/>
-      <c r="B42" s="2"/>
-      <c r="C42" s="2"/>
-      <c r="D42" s="2"/>
-      <c r="E42" s="2"/>
-      <c r="F42" s="2"/>
-    </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A43" s="2"/>
-      <c r="B43" s="2"/>
-      <c r="C43" s="2"/>
-      <c r="D43" s="2"/>
-      <c r="E43" s="2"/>
-      <c r="F43" s="2"/>
-    </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A44" s="2"/>
-      <c r="B44" s="2"/>
-      <c r="C44" s="2"/>
-      <c r="D44" s="2"/>
-      <c r="E44" s="2"/>
-      <c r="F44" s="2"/>
-    </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A45" s="2"/>
-      <c r="B45" s="2"/>
-      <c r="C45" s="2"/>
-      <c r="D45" s="2"/>
-      <c r="E45" s="2"/>
-      <c r="F45" s="2"/>
-    </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A46" s="2"/>
-      <c r="B46" s="2"/>
-      <c r="C46" s="2"/>
-      <c r="D46" s="2"/>
-      <c r="E46" s="2"/>
-      <c r="F46" s="2"/>
-    </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A47" s="2"/>
-      <c r="B47" s="2"/>
-      <c r="C47" s="2"/>
-      <c r="D47" s="2"/>
-      <c r="E47" s="2"/>
-      <c r="F47" s="2"/>
-    </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A48" s="2"/>
-      <c r="B48" s="2"/>
-      <c r="C48" s="2"/>
-      <c r="D48" s="2"/>
-      <c r="E48" s="2"/>
-      <c r="F48" s="2"/>
-    </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A49" s="2"/>
-      <c r="B49" s="2"/>
-      <c r="C49" s="2"/>
-      <c r="D49" s="2"/>
-      <c r="E49" s="2"/>
-      <c r="F49" s="2"/>
-    </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A50" s="2"/>
-      <c r="B50" s="2"/>
-      <c r="C50" s="2"/>
-      <c r="D50" s="2"/>
-      <c r="E50" s="2"/>
-      <c r="F50" s="2"/>
+      <c r="I1" s="1"/>
+      <c r="J1" s="1"/>
+      <c r="K1" s="1"/>
+      <c r="L1" s="1"/>
+      <c r="M1" s="1"/>
+      <c r="N1" s="1"/>
+      <c r="O1" s="1"/>
+      <c r="P1" s="1"/>
+      <c r="Q1" s="1"/>
+      <c r="R1" s="1"/>
+      <c r="S1" s="1"/>
+      <c r="T1" s="1"/>
+      <c r="U1" s="1"/>
+      <c r="V1" s="1"/>
+      <c r="W1" s="1"/>
+      <c r="X1" s="1"/>
+      <c r="Y1" s="1"/>
+      <c r="Z1" s="1"/>
+      <c r="AA1" s="1"/>
+      <c r="AB1" s="1"/>
+      <c r="AC1" s="1"/>
+      <c r="AD1" s="1"/>
+      <c r="AE1" s="1"/>
+      <c r="AF1" s="1"/>
+      <c r="AG1" s="1"/>
+      <c r="AH1" s="1"/>
     </row>
   </sheetData>
   <dataValidations count="1">
